--- a/Statistika.xlsx
+++ b/Statistika.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sola\IS\Seminar2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C76D1C-0EBD-45CA-BA94-0F1400FD7B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6D3712-62A1-4A70-B5C1-0643C3872A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D12D030F-50A2-47FD-957D-1C6828EBEEEA}"/>
+    <workbookView xWindow="-28920" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{D12D030F-50A2-47FD-957D-1C6828EBEEEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="57">
   <si>
     <t>Bayes</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>kNN, k = 11</t>
-  </si>
-  <si>
-    <t>Rnd Forest</t>
   </si>
   <si>
     <t>fMeasure</t>
@@ -206,6 +203,12 @@
   <si>
     <t>Correlation</t>
   </si>
+  <si>
+    <t xml:space="preserve">Rnd forest </t>
+  </si>
+  <si>
+    <t>Rnd forest</t>
+  </si>
 </sst>
 </file>
 
@@ -269,13 +272,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -595,12 +596,12 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -639,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -701,7 +702,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>0.85267970000000004</v>
@@ -717,7 +718,7 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1">
         <v>0.88962680000000005</v>
@@ -733,7 +734,7 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" s="1">
         <v>0.89709349999999999</v>
@@ -748,7 +749,7 @@
         <v>0.88374899499531501</v>
       </c>
       <c r="S2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T2" s="1">
         <v>0.88322179999999995</v>
@@ -763,7 +764,7 @@
         <v>0.86513018131013797</v>
       </c>
       <c r="Y2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" s="1">
         <v>0.8896288</v>
@@ -814,7 +815,7 @@
       <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="4">
         <v>0.90366599514175805</v>
       </c>
       <c r="O3" s="1">
@@ -937,115 +938,89 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.87202614379084997</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.86967320261437897</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.88222222222222202</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.87437908496731997</v>
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.86758169934640506</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.86745098039215696</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.88274509803921597</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.87699346405228795</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.907092552797925</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.90510697517674699</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.91426462836489297</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.90841590343137302</v>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.90344582489798797</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.90359042764429098</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.91492986483748195</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.91048920465511196</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1">
-        <v>0.88629096445506195</v>
+        <v>0.88396237117611098</v>
       </c>
       <c r="O5" s="1">
-        <v>0.88407498658077999</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.89565778855318601</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.88983887884902102</v>
+        <v>0.884626293722239</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.89391867182901397</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.891889550574548</v>
       </c>
       <c r="S5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0.929960291452266</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0.92775964492276697</v>
-      </c>
-      <c r="V5" s="6">
-        <v>0.934305318585266</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0.92842392262538698</v>
+        <v>56</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.92499953464110096</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.92440508904607799</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.937762260274977</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.93067844906074304</v>
       </c>
       <c r="Y5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>0.9328187</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0.93139289999999997</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0.93034989999999995</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0.926292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.93101436661797499</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.928627773451007</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.93013915763662602</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0.92506773249823004</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1204,138 +1179,138 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
       </c>
       <c r="C2">
         <v>0.20299449999999999</v>
@@ -1460,13 +1435,13 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>0.20299449999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>5.4480189999999998E-2</v>
@@ -1588,7 +1563,7 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>0.22927410000000001</v>
@@ -1597,7 +1572,7 @@
         <v>5.4480189999999998E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>6.918291E-3</v>
@@ -1716,7 +1691,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>2.179178E-2</v>
@@ -1728,7 +1703,7 @@
         <v>6.918291E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>0.38834489999999999</v>
@@ -1844,7 +1819,7 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>0.16186159999999999</v>
@@ -1859,7 +1834,7 @@
         <v>0.38834489999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>-1.45296E-2</v>
@@ -1972,7 +1947,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0.43701259999999997</v>
@@ -1990,7 +1965,7 @@
         <v>-1.45296E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7">
         <v>0.10436579999999999</v>
@@ -2100,7 +2075,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0.42441459999999998</v>
@@ -2121,7 +2096,7 @@
         <v>0.10436579999999999</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8">
         <v>0.58724609999999999</v>
@@ -2228,7 +2203,7 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.36324109999999998</v>
@@ -2252,7 +2227,7 @@
         <v>0.58724609999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>-0.2363179</v>
@@ -2356,7 +2331,7 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.1920125</v>
@@ -2383,7 +2358,7 @@
         <v>-0.2363179</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10">
         <v>0.2177849</v>
@@ -2484,7 +2459,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0.26836880000000002</v>
@@ -2514,7 +2489,7 @@
         <v>0.2177849</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11">
         <v>9.5815629999999999E-2</v>
@@ -2612,7 +2587,7 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>0.1685576</v>
@@ -2645,7 +2620,7 @@
         <v>9.5815629999999999E-2</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M12">
         <v>-8.2317130000000002E-2</v>
@@ -2740,7 +2715,7 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>-0.10783860000000001</v>
@@ -2776,7 +2751,7 @@
         <v>-8.2317130000000002E-2</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13">
         <v>-0.16449420000000001</v>
@@ -2868,7 +2843,7 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0.61889959999999999</v>
@@ -2907,7 +2882,7 @@
         <v>-0.16449420000000001</v>
       </c>
       <c r="N14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O14">
         <v>0.17144329999999999</v>
@@ -2996,7 +2971,7 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>-0.12104040000000001</v>
@@ -3038,7 +3013,7 @@
         <v>0.17144329999999999</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15">
         <v>3.0957539999999999E-2</v>
@@ -3124,7 +3099,7 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>0.91004819999999997</v>
@@ -3169,7 +3144,7 @@
         <v>3.0957539999999999E-2</v>
       </c>
       <c r="P16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>0.51481069999999995</v>
@@ -3252,7 +3227,7 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0.41169889999999998</v>
@@ -3300,7 +3275,7 @@
         <v>0.51481069999999995</v>
       </c>
       <c r="Q17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R17">
         <v>9.2976470000000006E-2</v>
@@ -3380,7 +3355,7 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>0.25787700000000002</v>
@@ -3431,7 +3406,7 @@
         <v>9.2976470000000006E-2</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S18">
         <v>0.31143530000000003</v>
@@ -3508,7 +3483,7 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>-0.1088436</v>
@@ -3562,7 +3537,7 @@
         <v>0.31143530000000003</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T19">
         <v>6.755423E-3</v>
@@ -3636,7 +3611,7 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>-9.0492569999999998E-3</v>
@@ -3693,7 +3668,7 @@
         <v>6.755423E-3</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U20">
         <v>-1.251421E-2</v>
@@ -3701,7 +3676,7 @@
       <c r="V20">
         <v>-6.8284560000000001E-3</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="5">
         <v>-5.6553860000000001E-6</v>
       </c>
       <c r="X20">
@@ -3764,7 +3739,7 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>0.1113459</v>
@@ -3824,7 +3799,7 @@
         <v>-1.251421E-2</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V21">
         <v>3.5292240000000002E-2</v>
@@ -3892,7 +3867,7 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>0.2337021</v>
@@ -3955,7 +3930,7 @@
         <v>3.5292240000000002E-2</v>
       </c>
       <c r="V22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W22">
         <v>-0.15624370000000001</v>
@@ -4020,7 +3995,7 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>0.16512260000000001</v>
@@ -4076,7 +4051,7 @@
       <c r="S23">
         <v>-0.79858030000000002</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="5">
         <v>-5.6553860000000001E-6</v>
       </c>
       <c r="U23">
@@ -4086,7 +4061,7 @@
         <v>-0.15624370000000001</v>
       </c>
       <c r="W23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X23">
         <v>0.1627565</v>
@@ -4148,7 +4123,7 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>0.15522140000000001</v>
@@ -4217,7 +4192,7 @@
         <v>0.1627565</v>
       </c>
       <c r="X24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y24">
         <v>-1.897242E-2</v>
@@ -4276,7 +4251,7 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>-7.1251919999999996E-2</v>
@@ -4348,7 +4323,7 @@
         <v>-1.897242E-2</v>
       </c>
       <c r="Y25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z25">
         <v>-3.1588989999999997E-2</v>
@@ -4404,7 +4379,7 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0.1221177</v>
@@ -4479,7 +4454,7 @@
         <v>-3.1588989999999997E-2</v>
       </c>
       <c r="Z26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA26">
         <v>-2.1512239999999998E-2</v>
@@ -4532,7 +4507,7 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>6.2138810000000003E-2</v>
@@ -4610,7 +4585,7 @@
         <v>-2.1512239999999998E-2</v>
       </c>
       <c r="AA27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB27">
         <v>0.12451039999999999</v>
@@ -4660,7 +4635,7 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0.92180169999999995</v>
@@ -4741,7 +4716,7 @@
         <v>0.12451039999999999</v>
       </c>
       <c r="AB28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC28">
         <v>-5.2912220000000003E-2</v>
@@ -4788,7 +4763,7 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>-6.1750359999999997E-2</v>
@@ -4872,7 +4847,7 @@
         <v>-5.2912220000000003E-2</v>
       </c>
       <c r="AC29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD29">
         <v>2.0529820000000001E-4</v>
@@ -4916,7 +4891,7 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>1.9052759999999998E-2</v>
@@ -5003,7 +4978,7 @@
         <v>2.0529820000000001E-4</v>
       </c>
       <c r="AD30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE30">
         <v>-0.1051532</v>
@@ -5044,7 +5019,7 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>0.26446979999999998</v>
@@ -5134,7 +5109,7 @@
         <v>-0.1051532</v>
       </c>
       <c r="AE31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF31">
         <v>0.23511280000000001</v>
@@ -5172,7 +5147,7 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>-2.4426239999999998E-2</v>
@@ -5265,7 +5240,7 @@
         <v>0.23511280000000001</v>
       </c>
       <c r="AF32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG32">
         <v>-9.9981829999999994E-2</v>
@@ -5300,7 +5275,7 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>0.22337419999999999</v>
@@ -5396,7 +5371,7 @@
         <v>-9.9981829999999994E-2</v>
       </c>
       <c r="AG33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH33">
         <v>-0.1036937</v>
@@ -5428,7 +5403,7 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0.31002819999999998</v>
@@ -5527,7 +5502,7 @@
         <v>-0.1036937</v>
       </c>
       <c r="AH34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI34">
         <v>0.34143509999999999</v>
@@ -5556,7 +5531,7 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>0.1187395</v>
@@ -5658,7 +5633,7 @@
         <v>0.34143509999999999</v>
       </c>
       <c r="AI35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ35">
         <v>0.26452690000000001</v>
@@ -5684,7 +5659,7 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>2.5345050000000001E-2</v>
@@ -5789,7 +5764,7 @@
         <v>0.26452690000000001</v>
       </c>
       <c r="AJ36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK36">
         <v>-0.12925629999999999</v>
@@ -5812,7 +5787,7 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>0.25412129999999999</v>
@@ -5920,7 +5895,7 @@
         <v>-0.12925629999999999</v>
       </c>
       <c r="AK37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL37">
         <v>-5.4808900000000001E-2</v>
@@ -5940,7 +5915,7 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>0.1012406</v>
@@ -6051,7 +6026,7 @@
         <v>-5.4808900000000001E-2</v>
       </c>
       <c r="AL38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM38">
         <v>6.2059089999999997E-2</v>
@@ -6068,7 +6043,7 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>4.9475060000000001E-2</v>
@@ -6182,7 +6157,7 @@
         <v>6.2059089999999997E-2</v>
       </c>
       <c r="AM39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN39">
         <v>1.8166290000000002E-2</v>
@@ -6196,7 +6171,7 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0.43300100000000002</v>
@@ -6313,7 +6288,7 @@
         <v>1.8166290000000002E-2</v>
       </c>
       <c r="AN40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AO40">
         <v>3.7171820000000001E-2</v>
@@ -6324,7 +6299,7 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>9.4261059999999994E-2</v>
@@ -6444,7 +6419,7 @@
         <v>3.7171820000000001E-2</v>
       </c>
       <c r="AO41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP41">
         <v>-4.1526639999999997E-2</v>
@@ -6452,7 +6427,7 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0.31376009999999999</v>
@@ -6575,7 +6550,7 @@
         <v>-4.1526639999999997E-2</v>
       </c>
       <c r="AP42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Statistika.xlsx
+++ b/Statistika.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sola\IS\Seminar2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konec\Desktop\FAKS23\IS\02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C76D1C-0EBD-45CA-BA94-0F1400FD7B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF0CD30-6BFB-4AD4-B371-5996C3AEDB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D12D030F-50A2-47FD-957D-1C6828EBEEEA}"/>
   </bookViews>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="59">
   <si>
     <t>Bayes</t>
   </si>
@@ -206,15 +203,25 @@
   <si>
     <t>Correlation</t>
   </si>
+  <si>
+    <t>kNN, k = 9</t>
+  </si>
+  <si>
+    <t>kNN, k = 5</t>
+  </si>
+  <si>
+    <t>kNN, k= 9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +232,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -266,21 +281,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -295,10 +311,5973 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 removed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k = 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.85267970000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86013070000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85228760000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85516339869281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.807581699346405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87202614379084997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9760-4F04-8BC6-D3C72844BD36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unimportant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k = 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.84689542483660096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85490200000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84444439999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84143789999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.804052287581699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86967320261437897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9760-4F04-8BC6-D3C72844BD36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k = 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.84431369999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85359479999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85359479999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85065359477124203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81529411764705895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88222222222222202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9760-4F04-8BC6-D3C72844BD36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k = 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.83176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84313729999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83529410000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81738560000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.804052287581699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87437908496731997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9760-4F04-8BC6-D3C72844BD36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="474451903"/>
+        <c:axId val="474450239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="474451903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474450239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474450239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474451903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>fMeasure</a:t>
+            </a:r>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41055555555555562"/>
+          <c:y val="3.7777774472635653E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 removed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$G$2:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88962680000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89547770000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88865919999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89067405263111799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84838008115306596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.907092552797925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93C5-4D52-95D3-11B2A67B3CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unimportant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$G$2:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88551205571675495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89303679999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88368670000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84143789999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84658825178390795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90510697517674699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93C5-4D52-95D3-11B2A67B3CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$G$2:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88307780000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8895383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88897389999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88386074644340196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85844959779897401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91426462836489297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-93C5-4D52-95D3-11B2A67B3CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$G$2:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.87343664987283198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88134590000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87402219999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86209860000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85119766360544702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90841590343137302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-93C5-4D52-95D3-11B2A67B3CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="463733919"/>
+        <c:axId val="463727263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="463733919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463727263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="463727263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463733919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Recall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 removed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$G$10:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$H$10:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88322179999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89038949999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87922840000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87910374036097005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80282509478649799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.929960291452266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46E4-4C78-8D48-8ACD006DEA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unimportant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$G$10:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$I$10:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88571233830899698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90101520000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87785299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8763282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80635640116216301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92775964492276697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46E4-4C78-8D48-8ACD006DEA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$G$10:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$J$10:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.87668140000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87605549999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8772993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86910023270622705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83772748887504001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.934305318585266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-46E4-4C78-8D48-8ACD006DEA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$G$10:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$K$10:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.86513018131013797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86717659999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85112639999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85240640000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83657889271108699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92842392262538698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-46E4-4C78-8D48-8ACD006DEA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539762527"/>
+        <c:axId val="539760447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539762527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539760447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539760447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539762527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>AUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 removed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$B$18:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.8896288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90463170000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91313259999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91683269999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88624760000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9328187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B26C-4E25-889B-734F0C0F5F1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unimportant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$18:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88099930000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90091410000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90806609999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90072300000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87885539999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93139289999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B26C-4E25-889B-734F0C0F5F1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$D$18:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.89193789999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9121011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90652410000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90973300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89013209999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93034989999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B26C-4E25-889B-734F0C0F5F1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN, k= 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$E$18:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88179200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8913683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88824820000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88773959999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87841910000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.926292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B26C-4E25-889B-734F0C0F5F1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="624329727"/>
+        <c:axId val="624330143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="624329727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624330143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624330143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624329727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:softEdge rad="0"/>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Precision</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40949300087489071"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 removed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.89709349999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90179160000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89892240000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90366599514175805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90130004581435896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88629096445506195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B08-4F28-B58E-E52661513B57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unimportant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88601668590056704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88555950000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89032829999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88677899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89235149156640603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88407498658077999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B08-4F28-B58E-E52661513B57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.89090800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90677669999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90142230000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88601668590056704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88223595348442496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89565778855318601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B08-4F28-B58E-E52661513B57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>kNN, k = 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN, k = 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kNN, k = 11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rnd Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88374899499531501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89863850000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8994373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87397939999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86749854754493905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88983887884902102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B08-4F28-B58E-E52661513B57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="625627951"/>
+        <c:axId val="625628367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="625627951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625628367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625628367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625627951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450190</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>108268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF420947-2D9D-BA88-6E54-3CE92B777334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>516815</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>510989</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA0AED7-F7B8-F725-57F6-218B8FD5EEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73FBCD5A-A3D0-0B57-D5B3-4725AD6C9778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>551329</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>519952</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63DB4D15-AA46-22D2-A7B1-DEDEC026E221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>237567</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2517B8-6777-EDD5-A8BC-C77C75F6BD97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -336,7 +6315,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -442,7 +6421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -592,10 +6571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CC59D5-C9E2-4DB7-9800-0F90D04D95E3}">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +6582,9 @@
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" customWidth="1"/>
@@ -653,417 +6634,210 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.85267970000000004</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>0.84689542483660096</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0.84431369999999994</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>0.83176470588235296</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.88962680000000005</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>0.88551205571675495</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.88307780000000002</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0.87343664987283198</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.89709349999999999</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.88601668590056704</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.89090800000000003</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.88374899499531501</v>
-      </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.88322179999999995</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.88571233830899698</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0.87668140000000006</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0.86513018131013797</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.8896288</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0.88099930000000004</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0.89193789999999995</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0.88179200000000002</v>
-      </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3">
-        <v>0.85516339869281</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.84143789999999996</v>
+        <v>0.86013070000000003</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.85490200000000005</v>
       </c>
       <c r="D3" s="3">
-        <v>0.85065359477124203</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.81738560000000005</v>
+        <v>0.85359479999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.84313729999999998</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.89067405263111799</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.84143789999999996</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.88386074644340196</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.86209860000000005</v>
+        <v>57</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.89547770000000004</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.89303679999999996</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.8895383</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.88134590000000002</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.90366599514175805</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.88677899999999998</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.88601668590056704</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.87397939999999996</v>
-      </c>
-      <c r="S3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.87910374036097005</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.8763282</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0.86910023270622705</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0.85240640000000001</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0.91683269999999994</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0.90072300000000005</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0.90973300000000001</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0.88773959999999996</v>
-      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.807581699346405</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.804052287581699</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.81529411764705895</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.804052287581699</v>
+        <v>56</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.85228760000000003</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.84444439999999998</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.85359479999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.83529410000000004</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.84838008115306596</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.84658825178390795</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.85844959779897401</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.85119766360544702</v>
+        <v>58</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.88865919999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.88368670000000005</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.88897389999999998</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.87402219999999997</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.90130004581435896</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.89235149156640603</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.88223595348442496</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.86749854754493905</v>
-      </c>
-      <c r="S4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.80282509478649799</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0.80635640116216301</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0.83772748887504001</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0.83657889271108699</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0.88624760000000002</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0.87885539999999995</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0.89013209999999998</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0.87841910000000001</v>
-      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.87202614379084997</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.86967320261437897</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.88222222222222202</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.87437908496731997</v>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.85516339869281</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.84143789999999996</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.85065359477124203</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.81738560000000005</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.907092552797925</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.90510697517674699</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.91426462836489297</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.90841590343137302</v>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.89067405263111799</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.84143789999999996</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.88386074644340196</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.86209860000000005</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.88629096445506195</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.88407498658077999</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.89565778855318601</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.88983887884902102</v>
-      </c>
-      <c r="S5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0.929960291452266</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0.92775964492276697</v>
-      </c>
-      <c r="V5" s="6">
-        <v>0.934305318585266</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0.92842392262538698</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>0.9328187</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0.93139289999999997</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0.93034989999999995</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0.926292</v>
-      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.807581699346405</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.804052287581699</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.81529411764705895</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.804052287581699</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.84838008115306596</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.84658825178390795</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.85844959779897401</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.85119766360544702</v>
+      </c>
       <c r="L6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.87202614379084997</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.86967320261437897</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.88222222222222202</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.87437908496731997</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.907092552797925</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.90510697517674699</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.91426462836489297</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.90841590343137302</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -1071,66 +6845,188 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
       <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.89709349999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.88601668590056704</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.89090800000000003</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.88374899499531501</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.88322179999999995</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.88571233830899698</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.87668140000000006</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.86513018131013797</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.90179160000000003</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.88555950000000005</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.90677669999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.89863850000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.89038949999999994</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.90101520000000002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.87605549999999999</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.86717659999999996</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
+      <c r="B12" s="3">
+        <v>0.89892240000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.89032829999999996</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.90142230000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.8994373</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.87922840000000002</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.87785299999999999</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.8772993</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.85112639999999995</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.90366599514175805</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.88677899999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.88601668590056704</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.87397939999999996</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.87910374036097005</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.8763282</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.86910023270622705</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.85240640000000001</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1139,11 +7035,36 @@
       <c r="X13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.90130004581435896</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.89235149156640603</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.88223595348442496</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.86749854754493905</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.80282509478649799</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.80635640116216301</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.83772748887504001</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.83657889271108699</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1152,11 +7073,36 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.88629096445506195</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.88407498658077999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.89565778855318601</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.88983887884902102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.929960291452266</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.92775964492276697</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.934305318585266</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.92842392262538698</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1165,7 +7111,6 @@
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1177,15 +7122,199 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
       <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.8896288</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.88099930000000004</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.89193789999999995</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.88179200000000002</v>
+      </c>
       <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.90463170000000004</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.90091410000000005</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.9121011</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.8913683</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.91313259999999996</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.90806609999999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.90652410000000005</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.88824820000000004</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.91683269999999994</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.90072300000000005</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.90973300000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.88773959999999996</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.88624760000000002</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.87885539999999995</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.89013209999999998</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.87841910000000001</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.9328187</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.93139289999999997</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.93034989999999995</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.926292</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1193,8 +7322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB493D9-A4D7-46FC-BA74-33FFCA89349D}">
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3701,7 +9830,7 @@
       <c r="V20">
         <v>-6.8284560000000001E-3</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="2">
         <v>-5.6553860000000001E-6</v>
       </c>
       <c r="X20">
@@ -4076,7 +10205,7 @@
       <c r="S23">
         <v>-0.79858030000000002</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="2">
         <v>-5.6553860000000001E-6</v>
       </c>
       <c r="U23">
